--- a/docs/现货因子1.xlsx
+++ b/docs/现货因子1.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1298,7 +1298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1522,11 +1522,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1568,7 +1576,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1600,9 +1608,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1634,6 +1643,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1809,21 +1819,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="41.5546875" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="38.875" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="7" max="7" width="41.6640625" customWidth="1"/>
+    <col min="7" max="7" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1851,7 +1861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="31.2" customHeight="1">
+    <row r="3" spans="1:12" ht="31.15" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1882,7 +1892,7 @@
         <v>644.56571220000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="31.2" customHeight="1">
+    <row r="4" spans="1:12" ht="31.15" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>182</v>
@@ -1894,7 +1904,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="31.2" customHeight="1">
+    <row r="5" spans="1:12" ht="31.15" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>212</v>
@@ -1958,7 +1968,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="44.4" customHeight="1">
+    <row r="9" spans="1:12" ht="44.45" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -2036,7 +2046,7 @@
         <v>2259.9811599999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="40.200000000000003" customHeight="1">
+    <row r="13" spans="1:12" ht="40.15" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>185</v>
@@ -2048,7 +2058,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="40.200000000000003" customHeight="1">
+    <row r="14" spans="1:12" ht="40.15" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>215</v>
@@ -2184,7 +2194,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="29" customFormat="1" ht="47.4" customHeight="1">
+    <row r="22" spans="1:10" s="29" customFormat="1" ht="47.45" customHeight="1">
       <c r="A22" s="28" t="s">
         <v>225</v>
       </c>
@@ -2209,7 +2219,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="29" customFormat="1" ht="47.4" customHeight="1">
+    <row r="23" spans="1:10" s="29" customFormat="1" ht="47.45" customHeight="1">
       <c r="A23" s="28"/>
       <c r="B23" s="3" t="s">
         <v>235</v>
@@ -2273,7 +2283,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="29" customFormat="1" ht="86.4">
+    <row r="28" spans="1:10" s="29" customFormat="1" ht="81">
       <c r="A28" s="28" t="s">
         <v>144</v>
       </c>
@@ -2359,7 +2369,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="43.2" customHeight="1">
+    <row r="34" spans="1:12" ht="43.15" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>141</v>
       </c>
@@ -2381,7 +2391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="43.2" customHeight="1">
+    <row r="35" spans="1:12" ht="43.15" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>173</v>
@@ -2395,7 +2405,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="43.2" customHeight="1">
+    <row r="36" spans="1:12" ht="43.15" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>175</v>
@@ -2407,7 +2417,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:12" s="10" customFormat="1" ht="31.8" customHeight="1">
+    <row r="37" spans="1:12" s="10" customFormat="1" ht="31.9" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -2421,7 +2431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="32.4" customHeight="1">
+    <row r="39" spans="1:12" ht="32.450000000000003" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>23</v>
       </c>
@@ -2452,7 +2462,7 @@
         <v>43.214883800000003</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="22.2" customHeight="1">
+    <row r="40" spans="1:12" ht="22.15" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
@@ -2477,7 +2487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="28.8">
+    <row r="41" spans="1:12">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>36</v>
@@ -2533,7 +2543,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:12" ht="28.8">
+    <row r="45" spans="1:12" ht="27">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>172</v>
@@ -2566,7 +2576,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="15" customFormat="1" ht="34.200000000000003" customHeight="1">
+    <row r="49" spans="1:12" s="15" customFormat="1" ht="34.15" customHeight="1">
       <c r="B49" s="16" t="s">
         <v>79</v>
       </c>
@@ -2625,7 +2635,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="28.2" customHeight="1">
+    <row r="52" spans="1:12" ht="28.15" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>167</v>
@@ -2639,7 +2649,7 @@
       <c r="H52" s="22"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:12" ht="28.2" customHeight="1">
+    <row r="53" spans="1:12" ht="28.15" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>168</v>
@@ -2653,7 +2663,7 @@
       <c r="H53" s="22"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:12" ht="28.2" customHeight="1">
+    <row r="54" spans="1:12" ht="28.15" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
         <v>169</v>
@@ -2675,7 +2685,7 @@
       <c r="C55" s="16"/>
       <c r="G55" s="16"/>
     </row>
-    <row r="56" spans="1:12" s="15" customFormat="1" ht="28.8" customHeight="1">
+    <row r="56" spans="1:12" s="15" customFormat="1" ht="28.9" customHeight="1">
       <c r="B56" s="16" t="s">
         <v>180</v>
       </c>
@@ -2692,7 +2702,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="13" customFormat="1" ht="57.6">
+    <row r="57" spans="1:12" s="13" customFormat="1" ht="54">
       <c r="B57" s="14" t="s">
         <v>156</v>
       </c>
@@ -2760,7 +2770,7 @@
         <v>955.34715940000001</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="3" customFormat="1" ht="122.4" customHeight="1">
+    <row r="63" spans="1:12" s="3" customFormat="1" ht="122.45" customHeight="1">
       <c r="B63" s="3" t="s">
         <v>223</v>
       </c>
@@ -2777,22 +2787,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="3" customFormat="1" ht="34.799999999999997" customHeight="1">
+    <row r="64" spans="1:12" s="3" customFormat="1" ht="34.9" customHeight="1">
       <c r="B64" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="3" customFormat="1" ht="40.799999999999997" customHeight="1">
+    <row r="65" spans="1:9" s="3" customFormat="1" ht="40.9" customHeight="1">
       <c r="B65" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="3" customFormat="1" ht="34.799999999999997" customHeight="1">
+    <row r="66" spans="1:9" s="3" customFormat="1" ht="34.9" customHeight="1">
       <c r="B66" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="3" customFormat="1" ht="28.8" customHeight="1">
+    <row r="67" spans="1:9" s="3" customFormat="1" ht="28.9" customHeight="1">
       <c r="B67" s="3" t="s">
         <v>241</v>
       </c>
@@ -2800,7 +2810,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="3" customFormat="1" ht="25.2" customHeight="1">
+    <row r="68" spans="1:9" s="3" customFormat="1" ht="25.15" customHeight="1">
       <c r="B68" s="3" t="s">
         <v>252</v>
       </c>
@@ -2808,7 +2818,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="3" customFormat="1" ht="25.2" customHeight="1">
+    <row r="69" spans="1:9" s="3" customFormat="1" ht="25.15" customHeight="1">
       <c r="B69" s="3" t="s">
         <v>242</v>
       </c>
@@ -2816,7 +2826,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="3" customFormat="1" ht="25.2" customHeight="1">
+    <row r="70" spans="1:9" s="3" customFormat="1" ht="25.15" customHeight="1">
       <c r="B70" s="3" t="s">
         <v>253</v>
       </c>
@@ -2824,7 +2834,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="3" customFormat="1" ht="25.2" customHeight="1">
+    <row r="71" spans="1:9" s="3" customFormat="1" ht="25.15" customHeight="1">
       <c r="B71" s="3" t="s">
         <v>206</v>
       </c>
@@ -2832,7 +2842,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="3" customFormat="1" ht="25.2" customHeight="1">
+    <row r="72" spans="1:9" s="3" customFormat="1" ht="25.15" customHeight="1">
       <c r="B72" s="3" t="s">
         <v>208</v>
       </c>
@@ -2869,7 +2879,7 @@
       <c r="G75" s="3"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:9" ht="28.8">
+    <row r="76" spans="1:9" ht="27">
       <c r="A76" s="18" t="s">
         <v>128</v>
       </c>
@@ -2891,7 +2901,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="28.8">
+    <row r="77" spans="1:9" ht="27">
       <c r="B77" s="3" t="s">
         <v>126</v>
       </c>
@@ -2908,7 +2918,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="28.8">
+    <row r="78" spans="1:9" ht="27">
       <c r="B78" s="3" t="s">
         <v>191</v>
       </c>
@@ -2994,7 +3004,7 @@
       </c>
       <c r="B90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="49.8" customHeight="1">
+    <row r="91" spans="1:12" ht="49.9" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>43</v>
       </c>
@@ -3026,7 +3036,7 @@
         <v>4657.8898304000004</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="49.8" customHeight="1">
+    <row r="92" spans="1:12" ht="49.9" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
         <v>201</v>
@@ -3039,7 +3049,7 @@
       <c r="G92" s="6"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="49.8" customHeight="1">
+    <row r="93" spans="1:12" ht="49.9" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
         <v>217</v>
@@ -3052,7 +3062,7 @@
       <c r="G93" s="6"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="28.8">
+    <row r="94" spans="1:12" ht="27">
       <c r="A94" s="3" t="s">
         <v>48</v>
       </c>
@@ -3085,7 +3095,7 @@
         <v>626.77718359999994</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="28.8">
+    <row r="95" spans="1:12" ht="27">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
         <v>202</v>
@@ -3099,7 +3109,7 @@
       <c r="H95" s="3"/>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="43.2">
+    <row r="96" spans="1:12" ht="27">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
         <v>218</v>
@@ -3113,7 +3123,7 @@
       <c r="H96" s="3"/>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="57.6">
+    <row r="97" spans="1:12" ht="54">
       <c r="A97" s="3" t="s">
         <v>129</v>
       </c>
@@ -3143,7 +3153,7 @@
         <v>99.582290900000004</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="57.6">
+    <row r="98" spans="1:12" ht="54">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
         <v>203</v>
@@ -3158,7 +3168,7 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="57.6">
+    <row r="99" spans="1:12" ht="54">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
         <v>219</v>
@@ -3173,7 +3183,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="1:12" s="25" customFormat="1" ht="43.2">
+    <row r="100" spans="1:12" s="25" customFormat="1" ht="40.5">
       <c r="B100" s="26" t="s">
         <v>198</v>
       </c>
@@ -3203,7 +3213,7 @@
       <c r="H102" s="3"/>
       <c r="J102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="57.6">
+    <row r="103" spans="1:12" ht="40.5">
       <c r="A103" s="5" t="s">
         <v>11</v>
       </c>
@@ -3214,7 +3224,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="28.8">
+    <row r="104" spans="1:12" ht="27">
       <c r="A104" s="5"/>
       <c r="B104" s="3" t="s">
         <v>196</v>
@@ -3223,7 +3233,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="57.6">
+    <row r="105" spans="1:12" ht="54">
       <c r="A105" s="5"/>
       <c r="B105" s="3" t="s">
         <v>197</v>
@@ -3241,7 +3251,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:12" s="15" customFormat="1" ht="28.8">
+    <row r="109" spans="1:12" s="15" customFormat="1" ht="27">
       <c r="B109" s="16" t="s">
         <v>83</v>
       </c>
@@ -3256,12 +3266,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="57.6">
+    <row r="110" spans="1:12" ht="54">
       <c r="B110" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="43.2">
+    <row r="111" spans="1:12" ht="40.5">
       <c r="B111" s="3" t="s">
         <v>200</v>
       </c>
@@ -3274,7 +3284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:12" s="10" customFormat="1" ht="28.8">
+    <row r="114" spans="1:12" s="10" customFormat="1" ht="27">
       <c r="A114" s="3" t="s">
         <v>88</v>
       </c>
@@ -3302,7 +3312,7 @@
         <v>564.53126239999995</v>
       </c>
     </row>
-    <row r="115" spans="1:12" s="22" customFormat="1" ht="43.2">
+    <row r="115" spans="1:12" s="22" customFormat="1" ht="40.5">
       <c r="A115" s="3" t="s">
         <v>115</v>
       </c>
@@ -3333,7 +3343,7 @@
         <v>1603.5969289</v>
       </c>
     </row>
-    <row r="116" spans="1:12" s="22" customFormat="1" ht="28.8">
+    <row r="116" spans="1:12" s="22" customFormat="1" ht="27">
       <c r="A116" s="3" t="s">
         <v>111</v>
       </c>
@@ -3389,7 +3399,7 @@
         <v>1687.0579958000001</v>
       </c>
     </row>
-    <row r="118" spans="1:12" s="22" customFormat="1" ht="32.4" customHeight="1">
+    <row r="118" spans="1:12" s="22" customFormat="1" ht="32.450000000000003" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>105</v>
       </c>
@@ -3461,7 +3471,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="1:12" s="3" customFormat="1" ht="28.8">
+    <row r="123" spans="1:12" s="3" customFormat="1" ht="27">
       <c r="A123" s="3" t="s">
         <v>53</v>
       </c>
@@ -3490,7 +3500,7 @@
         <v>566.8946158</v>
       </c>
     </row>
-    <row r="124" spans="1:12" s="10" customFormat="1" ht="28.8">
+    <row r="124" spans="1:12" s="10" customFormat="1" ht="27">
       <c r="A124" s="12" t="s">
         <v>69</v>
       </c>
@@ -3524,7 +3534,7 @@
         <v>457.10895639999899</v>
       </c>
     </row>
-    <row r="125" spans="1:12" s="10" customFormat="1" ht="28.8">
+    <row r="125" spans="1:12" s="10" customFormat="1" ht="27">
       <c r="A125" s="12" t="s">
         <v>72</v>
       </c>
@@ -3550,7 +3560,7 @@
       </c>
       <c r="K125"/>
     </row>
-    <row r="127" spans="1:12" ht="28.8">
+    <row r="127" spans="1:12" ht="27">
       <c r="A127" s="3" t="s">
         <v>138</v>
       </c>
@@ -3573,7 +3583,7 @@
         <v>717.36039059999996</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="28.8">
+    <row r="128" spans="1:12" ht="27">
       <c r="A128" s="3" t="s">
         <v>136</v>
       </c>
@@ -3596,7 +3606,7 @@
         <v>757.39374190000001</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="43.2">
+    <row r="129" spans="1:12" ht="40.5">
       <c r="B129" s="3" t="s">
         <v>140</v>
       </c>
@@ -3613,7 +3623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="3" customFormat="1" ht="28.8">
+    <row r="130" spans="1:12" s="3" customFormat="1" ht="27">
       <c r="A130" s="3" t="s">
         <v>61</v>
       </c>
@@ -3636,7 +3646,7 @@
         <v>1130.118056</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="28.8">
+    <row r="131" spans="1:12" ht="27">
       <c r="B131" s="3" t="s">
         <v>150</v>
       </c>
@@ -3648,7 +3658,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="13" customFormat="1" ht="28.8">
+    <row r="132" spans="1:12" s="13" customFormat="1" ht="27">
       <c r="B132" s="14" t="s">
         <v>210</v>
       </c>
@@ -3661,7 +3671,7 @@
       <c r="F132" s="14"/>
       <c r="G132" s="14"/>
     </row>
-    <row r="133" spans="1:12" ht="28.8">
+    <row r="133" spans="1:12" ht="27">
       <c r="B133" s="3" t="s">
         <v>211</v>
       </c>
@@ -3674,7 +3684,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="135" spans="1:12" s="19" customFormat="1" ht="67.8" customHeight="1">
+    <row r="135" spans="1:12" s="19" customFormat="1" ht="67.900000000000006" customHeight="1">
       <c r="B135" s="21" t="s">
         <v>92</v>
       </c>
@@ -3710,7 +3720,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="28.8">
+    <row r="138" spans="1:12" ht="27">
       <c r="A138" s="3" t="s">
         <v>97</v>
       </c>
@@ -3749,7 +3759,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="28.8">
+    <row r="144" spans="1:12" ht="27">
       <c r="B144" s="3" t="s">
         <v>149</v>
       </c>
@@ -3763,7 +3773,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="43.2">
+    <row r="145" spans="1:9" ht="27">
       <c r="B145" s="3" t="s">
         <v>147</v>
       </c>
@@ -3787,7 +3797,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="43.2">
+    <row r="150" spans="1:9" ht="40.5">
       <c r="B150" s="3" t="s">
         <v>161</v>
       </c>
@@ -3809,7 +3819,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="13" customFormat="1" ht="67.8" customHeight="1">
+    <row r="154" spans="1:9" s="13" customFormat="1" ht="67.900000000000006" customHeight="1">
       <c r="B154" s="14" t="s">
         <v>76</v>
       </c>
@@ -3862,12 +3872,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3876,12 +3886,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
